--- a/software-testing/往届真题/第十五届/模拟赛第一期/题目/模拟赛1期缺陷报告.xlsx
+++ b/software-testing/往届真题/第十五届/模拟赛第一期/题目/模拟赛1期缺陷报告.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02-蓝桥杯软件测试大赛\第十五届\02-模拟赛1期\03-功能测试\模板\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5009E40E-F5DB-4E67-B24A-3742C81EF689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="缺陷报告模板" sheetId="2" r:id="rId1"/>
     <sheet name="模板说明" sheetId="3" r:id="rId2"/>
     <sheet name="缺陷级别定义" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>缺陷编号</t>
   </si>
@@ -47,10 +49,353 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>缺陷级别</t>
+  </si>
+  <si>
+    <t>DL-BUG-001</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <r>
+      <t>登陆界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不输入验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登陆成功</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.打开登录界面
+2.输入正确的用户名和密码
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不输入验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.点击登录</t>
+    </r>
+  </si>
+  <si>
+    <t>登录失败，提示输入验证码</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>DL-BUG-002</t>
+  </si>
+  <si>
+    <r>
+      <t>登陆界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不勾选自动登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，刷新页面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也能自动登录</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.打开登录界面
+2.输入正确的用户名和密码
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不勾选自动登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4.点击登录
+5.重新打开浏览器，进入登录界面</t>
+    </r>
+  </si>
+  <si>
+    <t>需重新输入信息，才能登陆</t>
+  </si>
+  <si>
+    <t>自动登录成功</t>
+  </si>
+  <si>
+    <t>DL-BUG-003</t>
+  </si>
+  <si>
+    <r>
+      <t>登陆界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码与用户名未对齐</t>
+    </r>
+  </si>
+  <si>
+    <t>1.打开登录界面
+2.查看界面布局</t>
+  </si>
+  <si>
+    <t>密码与用户名应对齐</t>
+  </si>
+  <si>
+    <t>密码与用户名未对齐</t>
+  </si>
+  <si>
+    <t>DL-BUG-004</t>
+  </si>
+  <si>
+    <t>登陆界面，错误提示不完善</t>
+  </si>
+  <si>
+    <t>1.打开登录界面
+2.输入错误的用户名或密码
+3.输入正确验证码
+4.点击登陆</t>
+  </si>
+  <si>
+    <r>
+      <t>提示【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户名或密码错误】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>提示【</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册错误】</t>
+    </r>
+  </si>
+  <si>
+    <t>YHGL-BUG-001</t>
+  </si>
+  <si>
+    <t>用户管理</t>
+  </si>
+  <si>
+    <r>
+      <t>用户管理界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户状态搜索不起作用</t>
+    </r>
+  </si>
+  <si>
+    <t>1.打开用户管理界面
+2.选择【用户状态】为【正常】
+3.点击搜索
+4.选择【用户状态】为【停用】
+5.点击搜索</t>
+  </si>
+  <si>
+    <t>切换搜索后，显示用户不一样</t>
+  </si>
+  <si>
+    <r>
+      <t>切换搜索后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>显示用户不变</t>
+    </r>
+  </si>
+  <si>
+    <t>YHGL-BUG-002</t>
+  </si>
+  <si>
+    <r>
+      <t>用户管理界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击导入无反应</t>
+    </r>
+  </si>
+  <si>
+    <t>1.打开用户管理界面
+2.点击【导入】按钮</t>
+  </si>
+  <si>
+    <t>弹出界面，选择导入项</t>
+  </si>
+  <si>
+    <t>无反应</t>
+  </si>
+  <si>
+    <t>YHGL-BUG-003</t>
+  </si>
+  <si>
+    <r>
+      <t>用户管理界面，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户栏界面点击更多操作后，弹出的子界面，在切换部门后，依然存在</t>
+    </r>
+  </si>
+  <si>
+    <t>1.打开用户管理界面
+2.点击【更多操作】按钮
+3.点击不同的部门</t>
+  </si>
+  <si>
+    <t>弹出子界面消失</t>
+  </si>
+  <si>
+    <t>弹出子界面依然存在</t>
+  </si>
+  <si>
+    <t>TJYH-BUG-001</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>添加用户界面，</t>
+  </si>
+  <si>
     <t>模板列名</t>
   </si>
   <si>
     <t>填写说明</t>
+  </si>
+  <si>
+    <t>缺陷编号是标识该测试用例的唯一编号，用以区别其他测试用例。缺陷报告的编号有它的定义规则，主要是用于检索。在此处请使用如下命名规则：功能名称首字母缩写-BUG-001。</t>
+  </si>
+  <si>
+    <t>也可以叫做“测试模块”。指明要测试的项目、子项目或者软件的被测模块。如：xx 菜单、登录模块、购物车等。通常是指最终级的模块名称。</t>
+  </si>
+  <si>
+    <t>缺陷描述又叫“缺陷标题”、“缺陷摘要”。标题应该提供缺陷的本质信息，简明扼要地说明即可，能让人一眼看明白缺陷发生的概要。良好的缺陷标题应该按照下列方式书写：
+1. 避免使用模糊不清的词语，例如“功能不正确”、“功能中断”等。应该使用具体文字说明功能如何不正确，如何中断。
+2. 标题要便于搜索和查询，可以在标题中使用关键字。
+3. 为了便于他人理解，标题要清晰、简洁，避免描述过于具体的测试细节。
+4. 尽量按照缺陷发生的原因与结果的方式书写。比如“执行完 A 后，发生 B”，或者“发生 B，当 A 执行完后”。
+5. 使用“在……以后……”、“在……时候……”、“在……期间……”等连接词有助于描述缺陷的原因和结果。</t>
   </si>
   <si>
     <t>复现步骤是指如何使别人能够很容易的复现该缺陷的完整步骤。为了达到这个要求，复现步骤的信息必须是完整的、准确的、简明的、可复现的。
@@ -71,7 +416,29 @@
 有时，一个动作将产生一个结果，而这个结果又产生另一个结果。这种情况可能难以清晰、简洁的总结，可以把缺陷分解成多个缺陷报告，或者在实际结果部分，仅列出缺陷的一到两个表现特征，然后将随后的表现特征移到注释部分。因为重要的信息几乎总是包含在第一断言或错误描述里，其他的错误都是第一个错误的变种和后续现象。</t>
   </si>
   <si>
-    <t>缺陷级别</t>
+    <t>缺陷的严重等级是指因缺陷引起的故障对使用软件产品的影响程度。缺陷生来就不是平等的，有一些导致系统崩溃或死机的缺陷很明显比软件界面不友好更影响用户的使用。按照 CMM5 中定义的规范，缺陷的严重等级可分为 3~5 个等级，但也有的公司列到 10 个等级，而有的公司只有 3 个等级。
+请参考本文档中【缺陷级别定义】中的描述。判分时会根据缺陷的级别给定不同的分数。如1级缺陷每个3分，2级缺陷每个1分。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="方正小标宋简体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在提交缺陷时，通常每个缺陷对于系统的影响程度是不同的，所以缺陷生来就不是平等的，它们具有不同的级别。在编写缺陷时请参考下述定义。（比赛系统将规避因致命缺陷导致无法进行后续的测试的测试工作，在此去掉了致命缺陷级别。）</t>
+    </r>
   </si>
   <si>
     <t>1 级</t>
@@ -94,73 +461,35 @@
 3. 提示窗口文字未采用行业术语；
 4. 改进建议等。</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正小标宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="方正小标宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在提交缺陷时，通常每个缺陷对于系统的影响程度是不同的，所以缺陷生来就不是平等的，它们具有不同的级别。在编写缺陷时请参考下述定义。（比赛系统将规避因致命缺陷导致无法进行后续的测试的测试工作，在此去掉了致命缺陷级别。）</t>
-    </r>
-  </si>
-  <si>
-    <t>也可以叫做“测试模块”。指明要测试的项目、子项目或者软件的被测模块。如：xx 菜单、登录模块、购物车等。通常是指最终级的模块名称。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷描述又叫“缺陷标题”、“缺陷摘要”。标题应该提供缺陷的本质信息，简明扼要地说明即可，能让人一眼看明白缺陷发生的概要。良好的缺陷标题应该按照下列方式书写：
-1. 避免使用模糊不清的词语，例如“功能不正确”、“功能中断”等。应该使用具体文字说明功能如何不正确，如何中断。
-2. 标题要便于搜索和查询，可以在标题中使用关键字。
-3. 为了便于他人理解，标题要清晰、简洁，避免描述过于具体的测试细节。
-4. 尽量按照缺陷发生的原因与结果的方式书写。比如“执行完 A 后，发生 B”，或者“发生 B，当 A 执行完后”。
-5. 使用“在……以后……”、“在……时候……”、“在……期间……”等连接词有助于描述缺陷的原因和结果。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷编号是标识该测试用例的唯一编号，用以区别其他测试用例。缺陷报告的编号有它的定义规则，主要是用于检索。在此处请使用如下命名规则：功能名称首字母缩写-BUG-001。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷的严重等级是指因缺陷引起的故障对使用软件产品的影响程度。缺陷生来就不是平等的，有一些导致系统崩溃或死机的缺陷很明显比软件界面不友好更影响用户的使用。按照 CMM5 中定义的规范，缺陷的严重等级可分为 3~5 个等级，但也有的公司列到 10 个等级，而有的公司只有 3 个等级。
-请参考本文档中【缺陷级别定义】中的描述。判分时会根据缺陷的级别给定不同的分数。如1级缺陷每个3分，2级缺陷每个1分。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺陷级别</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="方正小标宋简体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="方正小标宋简体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,63 +497,375 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="方正小标宋简体"/>
-      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="方正小标宋简体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="方正小标宋简体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正小标宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="方正小标宋简体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,84 +890,355 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF1F2329"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF1F2329"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF1F2329"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF1F2329"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,7 +1287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -408,26 +1320,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,23 +1355,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -618,288 +1496,386 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A1E0AC-047F-4308-A6D1-6FBE0FB4344A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14" style="2"/>
+    <col min="1" max="1" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.62962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="48" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="48" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="60" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="24" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="36" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA0BEC3-A681-45C3-831A-57E6D84F0FC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T200"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14" style="2"/>
-    <col min="2" max="2" width="105" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="14" style="2"/>
+    <col min="1" max="1" width="14" style="1"/>
+    <col min="2" max="2" width="105" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="27" customHeight="1" spans="1:20">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -920,12 +1896,12 @@
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:20">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -946,12 +1922,12 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="33" customHeight="1" spans="1:20">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -972,12 +1948,12 @@
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" ht="103" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="103" customHeight="1" spans="1:20">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -998,12 +1974,12 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20" ht="170" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="170" customHeight="1" spans="1:20">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1024,12 +2000,12 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="34" customHeight="1" spans="1:20">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1050,12 +2026,12 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="92" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="92" customHeight="1" spans="1:20">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1076,12 +2052,12 @@
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
-    <row r="8" spans="1:20" ht="98" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
+    <row r="8" ht="98" customHeight="1" spans="1:20">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1102,7 +2078,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="27" customHeight="1" spans="1:20">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1124,7 +2100,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="27" customHeight="1" spans="1:20">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1146,7 +2122,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="27" customHeight="1" spans="1:20">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1168,7 +2144,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
-    <row r="12" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="27" customHeight="1" spans="1:20">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1190,7 +2166,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="27" customHeight="1" spans="1:20">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1212,7 +2188,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="27" customHeight="1" spans="1:20">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1234,7 +2210,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="27" customHeight="1" spans="1:20">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1256,7 +2232,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
     </row>
-    <row r="16" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="27" customHeight="1" spans="1:20">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1278,7 +2254,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="27" customHeight="1" spans="1:20">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1300,7 +2276,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="27" customHeight="1" spans="1:20">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1322,7 +2298,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="27" customHeight="1" spans="1:20">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1344,7 +2320,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="27" customHeight="1" spans="1:20">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1366,7 +2342,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="27" customHeight="1" spans="1:20">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1388,7 +2364,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="27" customHeight="1" spans="1:20">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1410,7 +2386,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="27" customHeight="1" spans="1:20">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1432,7 +2408,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="27" customHeight="1" spans="1:20">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1454,7 +2430,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="27" customHeight="1" spans="1:20">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1476,7 +2452,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="27" customHeight="1" spans="1:20">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1498,7 +2474,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="27" customHeight="1" spans="1:20">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1520,7 +2496,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="27" customHeight="1" spans="1:20">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1542,7 +2518,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="27" customHeight="1" spans="1:20">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1564,7 +2540,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="27" customHeight="1" spans="1:20">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1586,7 +2562,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="27" customHeight="1" spans="1:20">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1608,7 +2584,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="27" customHeight="1" spans="1:20">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1630,7 +2606,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="27" customHeight="1" spans="1:20">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1652,7 +2628,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="27" customHeight="1" spans="1:20">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1674,7 +2650,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="27" customHeight="1" spans="1:20">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1696,7 +2672,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="27" customHeight="1" spans="1:20">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1718,7 +2694,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="27" customHeight="1" spans="1:20">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1740,7 +2716,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
     </row>
-    <row r="38" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="27" customHeight="1" spans="1:20">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1762,7 +2738,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
     </row>
-    <row r="39" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="27" customHeight="1" spans="1:20">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1784,7 +2760,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
     </row>
-    <row r="40" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="27" customHeight="1" spans="1:20">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1806,7 +2782,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
     </row>
-    <row r="41" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="27" customHeight="1" spans="1:20">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1828,7 +2804,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
     </row>
-    <row r="42" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="27" customHeight="1" spans="1:20">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1850,7 +2826,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
     </row>
-    <row r="43" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="27" customHeight="1" spans="1:20">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1872,7 +2848,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
     </row>
-    <row r="44" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="27" customHeight="1" spans="1:20">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1894,7 +2870,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
     </row>
-    <row r="45" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="27" customHeight="1" spans="1:20">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1916,7 +2892,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
     </row>
-    <row r="46" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="27" customHeight="1" spans="1:20">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1938,7 +2914,7 @@
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
     </row>
-    <row r="47" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="27" customHeight="1" spans="1:20">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1960,7 +2936,7 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
     </row>
-    <row r="48" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="27" customHeight="1" spans="1:20">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1982,7 +2958,7 @@
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
     </row>
-    <row r="49" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="27" customHeight="1" spans="1:20">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2004,7 +2980,7 @@
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
     </row>
-    <row r="50" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="27" customHeight="1" spans="1:20">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2026,7 +3002,7 @@
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
     </row>
-    <row r="51" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="27" customHeight="1" spans="1:20">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2048,7 +3024,7 @@
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
     </row>
-    <row r="52" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="27" customHeight="1" spans="1:20">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2070,7 +3046,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="27" customHeight="1" spans="1:20">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2092,7 +3068,7 @@
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="27" customHeight="1" spans="1:20">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2114,7 +3090,7 @@
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="27" customHeight="1" spans="1:20">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2136,7 +3112,7 @@
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="27" customHeight="1" spans="1:20">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2158,7 +3134,7 @@
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="27" customHeight="1" spans="1:20">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2180,7 +3156,7 @@
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="27" customHeight="1" spans="1:20">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2202,7 +3178,7 @@
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="27" customHeight="1" spans="1:20">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2224,7 +3200,7 @@
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="27" customHeight="1" spans="1:20">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2246,7 +3222,7 @@
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="27" customHeight="1" spans="1:20">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2268,7 +3244,7 @@
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="27" customHeight="1" spans="1:20">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2290,7 +3266,7 @@
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="27" customHeight="1" spans="1:20">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2312,7 +3288,7 @@
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="27" customHeight="1" spans="1:20">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2334,7 +3310,7 @@
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
     </row>
-    <row r="65" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="27" customHeight="1" spans="1:20">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2356,7 +3332,7 @@
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
     </row>
-    <row r="66" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="27" customHeight="1" spans="1:20">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2378,7 +3354,7 @@
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
     </row>
-    <row r="67" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="27" customHeight="1" spans="1:20">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2400,7 +3376,7 @@
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
     </row>
-    <row r="68" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="27" customHeight="1" spans="1:20">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2422,7 +3398,7 @@
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
     </row>
-    <row r="69" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="27" customHeight="1" spans="1:20">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2444,7 +3420,7 @@
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
     </row>
-    <row r="70" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="27" customHeight="1" spans="1:20">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -2466,7 +3442,7 @@
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
     </row>
-    <row r="71" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="27" customHeight="1" spans="1:20">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -2488,7 +3464,7 @@
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
     </row>
-    <row r="72" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="27" customHeight="1" spans="1:20">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -2510,7 +3486,7 @@
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
     </row>
-    <row r="73" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="27" customHeight="1" spans="1:20">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -2532,7 +3508,7 @@
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
     </row>
-    <row r="74" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="27" customHeight="1" spans="1:20">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -2554,7 +3530,7 @@
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
     </row>
-    <row r="75" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="27" customHeight="1" spans="1:20">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -2576,7 +3552,7 @@
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
     </row>
-    <row r="76" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="27" customHeight="1" spans="1:20">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2598,7 +3574,7 @@
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
     </row>
-    <row r="77" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="27" customHeight="1" spans="1:20">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2620,7 +3596,7 @@
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
     </row>
-    <row r="78" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="27" customHeight="1" spans="1:20">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2642,7 +3618,7 @@
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
     </row>
-    <row r="79" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="27" customHeight="1" spans="1:20">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2664,7 +3640,7 @@
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
     </row>
-    <row r="80" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="27" customHeight="1" spans="1:20">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2686,7 +3662,7 @@
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
     </row>
-    <row r="81" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" ht="27" customHeight="1" spans="1:20">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2708,7 +3684,7 @@
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
     </row>
-    <row r="82" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" ht="27" customHeight="1" spans="1:20">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2730,7 +3706,7 @@
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
     </row>
-    <row r="83" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" ht="27" customHeight="1" spans="1:20">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2752,7 +3728,7 @@
       <c r="S83" s="4"/>
       <c r="T83" s="4"/>
     </row>
-    <row r="84" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" ht="27" customHeight="1" spans="1:20">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2774,7 +3750,7 @@
       <c r="S84" s="4"/>
       <c r="T84" s="4"/>
     </row>
-    <row r="85" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" ht="27" customHeight="1" spans="1:20">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2796,7 +3772,7 @@
       <c r="S85" s="4"/>
       <c r="T85" s="4"/>
     </row>
-    <row r="86" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" ht="27" customHeight="1" spans="1:20">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2818,7 +3794,7 @@
       <c r="S86" s="4"/>
       <c r="T86" s="4"/>
     </row>
-    <row r="87" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" ht="27" customHeight="1" spans="1:20">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2840,7 +3816,7 @@
       <c r="S87" s="4"/>
       <c r="T87" s="4"/>
     </row>
-    <row r="88" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" ht="27" customHeight="1" spans="1:20">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2862,7 +3838,7 @@
       <c r="S88" s="4"/>
       <c r="T88" s="4"/>
     </row>
-    <row r="89" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" ht="27" customHeight="1" spans="1:20">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2884,7 +3860,7 @@
       <c r="S89" s="4"/>
       <c r="T89" s="4"/>
     </row>
-    <row r="90" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" ht="27" customHeight="1" spans="1:20">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2906,7 +3882,7 @@
       <c r="S90" s="4"/>
       <c r="T90" s="4"/>
     </row>
-    <row r="91" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" ht="27" customHeight="1" spans="1:20">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2928,7 +3904,7 @@
       <c r="S91" s="4"/>
       <c r="T91" s="4"/>
     </row>
-    <row r="92" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" ht="27" customHeight="1" spans="1:20">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2950,7 +3926,7 @@
       <c r="S92" s="4"/>
       <c r="T92" s="4"/>
     </row>
-    <row r="93" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" ht="27" customHeight="1" spans="1:20">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2972,7 +3948,7 @@
       <c r="S93" s="4"/>
       <c r="T93" s="4"/>
     </row>
-    <row r="94" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" ht="27" customHeight="1" spans="1:20">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2994,7 +3970,7 @@
       <c r="S94" s="4"/>
       <c r="T94" s="4"/>
     </row>
-    <row r="95" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" ht="27" customHeight="1" spans="1:20">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3016,7 +3992,7 @@
       <c r="S95" s="4"/>
       <c r="T95" s="4"/>
     </row>
-    <row r="96" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" ht="27" customHeight="1" spans="1:20">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3038,7 +4014,7 @@
       <c r="S96" s="4"/>
       <c r="T96" s="4"/>
     </row>
-    <row r="97" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" ht="27" customHeight="1" spans="1:20">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3060,7 +4036,7 @@
       <c r="S97" s="4"/>
       <c r="T97" s="4"/>
     </row>
-    <row r="98" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" ht="27" customHeight="1" spans="1:20">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3082,7 +4058,7 @@
       <c r="S98" s="4"/>
       <c r="T98" s="4"/>
     </row>
-    <row r="99" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" ht="27" customHeight="1" spans="1:20">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3104,7 +4080,7 @@
       <c r="S99" s="4"/>
       <c r="T99" s="4"/>
     </row>
-    <row r="100" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" ht="27" customHeight="1" spans="1:20">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3126,7 +4102,7 @@
       <c r="S100" s="4"/>
       <c r="T100" s="4"/>
     </row>
-    <row r="101" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="27" customHeight="1" spans="1:20">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3148,7 +4124,7 @@
       <c r="S101" s="4"/>
       <c r="T101" s="4"/>
     </row>
-    <row r="102" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="27" customHeight="1" spans="1:20">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3170,7 +4146,7 @@
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
     </row>
-    <row r="103" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="27" customHeight="1" spans="1:20">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3192,7 +4168,7 @@
       <c r="S103" s="4"/>
       <c r="T103" s="4"/>
     </row>
-    <row r="104" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="27" customHeight="1" spans="1:20">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3214,7 +4190,7 @@
       <c r="S104" s="4"/>
       <c r="T104" s="4"/>
     </row>
-    <row r="105" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="27" customHeight="1" spans="1:20">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3236,7 +4212,7 @@
       <c r="S105" s="4"/>
       <c r="T105" s="4"/>
     </row>
-    <row r="106" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="27" customHeight="1" spans="1:20">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3258,7 +4234,7 @@
       <c r="S106" s="4"/>
       <c r="T106" s="4"/>
     </row>
-    <row r="107" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="27" customHeight="1" spans="1:20">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3280,7 +4256,7 @@
       <c r="S107" s="4"/>
       <c r="T107" s="4"/>
     </row>
-    <row r="108" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="27" customHeight="1" spans="1:20">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3302,7 +4278,7 @@
       <c r="S108" s="4"/>
       <c r="T108" s="4"/>
     </row>
-    <row r="109" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="27" customHeight="1" spans="1:20">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3324,7 +4300,7 @@
       <c r="S109" s="4"/>
       <c r="T109" s="4"/>
     </row>
-    <row r="110" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="27" customHeight="1" spans="1:20">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3346,7 +4322,7 @@
       <c r="S110" s="4"/>
       <c r="T110" s="4"/>
     </row>
-    <row r="111" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="27" customHeight="1" spans="1:20">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3368,7 +4344,7 @@
       <c r="S111" s="4"/>
       <c r="T111" s="4"/>
     </row>
-    <row r="112" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="27" customHeight="1" spans="1:20">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3390,7 +4366,7 @@
       <c r="S112" s="4"/>
       <c r="T112" s="4"/>
     </row>
-    <row r="113" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="27" customHeight="1" spans="1:20">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3412,7 +4388,7 @@
       <c r="S113" s="4"/>
       <c r="T113" s="4"/>
     </row>
-    <row r="114" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="27" customHeight="1" spans="1:20">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3434,7 +4410,7 @@
       <c r="S114" s="4"/>
       <c r="T114" s="4"/>
     </row>
-    <row r="115" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="27" customHeight="1" spans="1:20">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3456,7 +4432,7 @@
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
     </row>
-    <row r="116" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="27" customHeight="1" spans="1:20">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3478,7 +4454,7 @@
       <c r="S116" s="4"/>
       <c r="T116" s="4"/>
     </row>
-    <row r="117" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="27" customHeight="1" spans="1:20">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3500,7 +4476,7 @@
       <c r="S117" s="4"/>
       <c r="T117" s="4"/>
     </row>
-    <row r="118" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="27" customHeight="1" spans="1:20">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -3522,7 +4498,7 @@
       <c r="S118" s="4"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="27" customHeight="1" spans="1:20">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -3544,7 +4520,7 @@
       <c r="S119" s="4"/>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="27" customHeight="1" spans="1:20">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -3566,7 +4542,7 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
     </row>
-    <row r="121" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="27" customHeight="1" spans="1:20">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -3588,7 +4564,7 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
     </row>
-    <row r="122" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="27" customHeight="1" spans="1:20">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -3610,7 +4586,7 @@
       <c r="S122" s="4"/>
       <c r="T122" s="4"/>
     </row>
-    <row r="123" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="27" customHeight="1" spans="1:20">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -3632,7 +4608,7 @@
       <c r="S123" s="4"/>
       <c r="T123" s="4"/>
     </row>
-    <row r="124" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="27" customHeight="1" spans="1:20">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -3654,7 +4630,7 @@
       <c r="S124" s="4"/>
       <c r="T124" s="4"/>
     </row>
-    <row r="125" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="27" customHeight="1" spans="1:20">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -3676,7 +4652,7 @@
       <c r="S125" s="4"/>
       <c r="T125" s="4"/>
     </row>
-    <row r="126" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="27" customHeight="1" spans="1:20">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -3698,7 +4674,7 @@
       <c r="S126" s="4"/>
       <c r="T126" s="4"/>
     </row>
-    <row r="127" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="27" customHeight="1" spans="1:20">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -3720,7 +4696,7 @@
       <c r="S127" s="4"/>
       <c r="T127" s="4"/>
     </row>
-    <row r="128" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" ht="27" customHeight="1" spans="1:20">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -3742,7 +4718,7 @@
       <c r="S128" s="4"/>
       <c r="T128" s="4"/>
     </row>
-    <row r="129" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" ht="27" customHeight="1" spans="1:20">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3764,7 +4740,7 @@
       <c r="S129" s="4"/>
       <c r="T129" s="4"/>
     </row>
-    <row r="130" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" ht="27" customHeight="1" spans="1:20">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3786,7 +4762,7 @@
       <c r="S130" s="4"/>
       <c r="T130" s="4"/>
     </row>
-    <row r="131" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" ht="27" customHeight="1" spans="1:20">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3808,7 +4784,7 @@
       <c r="S131" s="4"/>
       <c r="T131" s="4"/>
     </row>
-    <row r="132" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" ht="27" customHeight="1" spans="1:20">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3830,7 +4806,7 @@
       <c r="S132" s="4"/>
       <c r="T132" s="4"/>
     </row>
-    <row r="133" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" ht="27" customHeight="1" spans="1:20">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3852,7 +4828,7 @@
       <c r="S133" s="4"/>
       <c r="T133" s="4"/>
     </row>
-    <row r="134" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" ht="27" customHeight="1" spans="1:20">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3874,7 +4850,7 @@
       <c r="S134" s="4"/>
       <c r="T134" s="4"/>
     </row>
-    <row r="135" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" ht="27" customHeight="1" spans="1:20">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3896,7 +4872,7 @@
       <c r="S135" s="4"/>
       <c r="T135" s="4"/>
     </row>
-    <row r="136" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" ht="27" customHeight="1" spans="1:20">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3918,7 +4894,7 @@
       <c r="S136" s="4"/>
       <c r="T136" s="4"/>
     </row>
-    <row r="137" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" ht="27" customHeight="1" spans="1:20">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3940,7 +4916,7 @@
       <c r="S137" s="4"/>
       <c r="T137" s="4"/>
     </row>
-    <row r="138" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" ht="27" customHeight="1" spans="1:20">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3962,7 +4938,7 @@
       <c r="S138" s="4"/>
       <c r="T138" s="4"/>
     </row>
-    <row r="139" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" ht="27" customHeight="1" spans="1:20">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3984,7 +4960,7 @@
       <c r="S139" s="4"/>
       <c r="T139" s="4"/>
     </row>
-    <row r="140" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" ht="27" customHeight="1" spans="1:20">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4006,7 +4982,7 @@
       <c r="S140" s="4"/>
       <c r="T140" s="4"/>
     </row>
-    <row r="141" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" ht="27" customHeight="1" spans="1:20">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4028,7 +5004,7 @@
       <c r="S141" s="4"/>
       <c r="T141" s="4"/>
     </row>
-    <row r="142" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" ht="27" customHeight="1" spans="1:20">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4050,7 +5026,7 @@
       <c r="S142" s="4"/>
       <c r="T142" s="4"/>
     </row>
-    <row r="143" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" ht="27" customHeight="1" spans="1:20">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4072,7 +5048,7 @@
       <c r="S143" s="4"/>
       <c r="T143" s="4"/>
     </row>
-    <row r="144" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" ht="27" customHeight="1" spans="1:20">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4094,7 +5070,7 @@
       <c r="S144" s="4"/>
       <c r="T144" s="4"/>
     </row>
-    <row r="145" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" ht="27" customHeight="1" spans="1:20">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4116,7 +5092,7 @@
       <c r="S145" s="4"/>
       <c r="T145" s="4"/>
     </row>
-    <row r="146" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" ht="27" customHeight="1" spans="1:20">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4138,7 +5114,7 @@
       <c r="S146" s="4"/>
       <c r="T146" s="4"/>
     </row>
-    <row r="147" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" ht="27" customHeight="1" spans="1:20">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4160,7 +5136,7 @@
       <c r="S147" s="4"/>
       <c r="T147" s="4"/>
     </row>
-    <row r="148" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" ht="27" customHeight="1" spans="1:20">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4182,7 +5158,7 @@
       <c r="S148" s="4"/>
       <c r="T148" s="4"/>
     </row>
-    <row r="149" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" ht="27" customHeight="1" spans="1:20">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4204,7 +5180,7 @@
       <c r="S149" s="4"/>
       <c r="T149" s="4"/>
     </row>
-    <row r="150" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" ht="27" customHeight="1" spans="1:20">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4226,7 +5202,7 @@
       <c r="S150" s="4"/>
       <c r="T150" s="4"/>
     </row>
-    <row r="151" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" ht="27" customHeight="1" spans="1:20">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4248,7 +5224,7 @@
       <c r="S151" s="4"/>
       <c r="T151" s="4"/>
     </row>
-    <row r="152" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" ht="27" customHeight="1" spans="1:20">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4270,7 +5246,7 @@
       <c r="S152" s="4"/>
       <c r="T152" s="4"/>
     </row>
-    <row r="153" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" ht="27" customHeight="1" spans="1:20">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4292,7 +5268,7 @@
       <c r="S153" s="4"/>
       <c r="T153" s="4"/>
     </row>
-    <row r="154" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" ht="27" customHeight="1" spans="1:20">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4314,7 +5290,7 @@
       <c r="S154" s="4"/>
       <c r="T154" s="4"/>
     </row>
-    <row r="155" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" ht="27" customHeight="1" spans="1:20">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4336,7 +5312,7 @@
       <c r="S155" s="4"/>
       <c r="T155" s="4"/>
     </row>
-    <row r="156" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" ht="27" customHeight="1" spans="1:20">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4358,7 +5334,7 @@
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>
     </row>
-    <row r="157" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" ht="27" customHeight="1" spans="1:20">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4380,7 +5356,7 @@
       <c r="S157" s="4"/>
       <c r="T157" s="4"/>
     </row>
-    <row r="158" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" ht="27" customHeight="1" spans="1:20">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4402,7 +5378,7 @@
       <c r="S158" s="4"/>
       <c r="T158" s="4"/>
     </row>
-    <row r="159" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" ht="27" customHeight="1" spans="1:20">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4424,7 +5400,7 @@
       <c r="S159" s="4"/>
       <c r="T159" s="4"/>
     </row>
-    <row r="160" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" ht="27" customHeight="1" spans="1:20">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4446,7 +5422,7 @@
       <c r="S160" s="4"/>
       <c r="T160" s="4"/>
     </row>
-    <row r="161" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" ht="27" customHeight="1" spans="1:20">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4468,7 +5444,7 @@
       <c r="S161" s="4"/>
       <c r="T161" s="4"/>
     </row>
-    <row r="162" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" ht="27" customHeight="1" spans="1:20">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4490,7 +5466,7 @@
       <c r="S162" s="4"/>
       <c r="T162" s="4"/>
     </row>
-    <row r="163" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" ht="27" customHeight="1" spans="1:20">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4512,7 +5488,7 @@
       <c r="S163" s="4"/>
       <c r="T163" s="4"/>
     </row>
-    <row r="164" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" ht="27" customHeight="1" spans="1:20">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4534,7 +5510,7 @@
       <c r="S164" s="4"/>
       <c r="T164" s="4"/>
     </row>
-    <row r="165" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" ht="27" customHeight="1" spans="1:20">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4556,7 +5532,7 @@
       <c r="S165" s="4"/>
       <c r="T165" s="4"/>
     </row>
-    <row r="166" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" ht="27" customHeight="1" spans="1:20">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4578,7 +5554,7 @@
       <c r="S166" s="4"/>
       <c r="T166" s="4"/>
     </row>
-    <row r="167" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" ht="27" customHeight="1" spans="1:20">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4600,7 +5576,7 @@
       <c r="S167" s="4"/>
       <c r="T167" s="4"/>
     </row>
-    <row r="168" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" ht="27" customHeight="1" spans="1:20">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4622,7 +5598,7 @@
       <c r="S168" s="4"/>
       <c r="T168" s="4"/>
     </row>
-    <row r="169" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" ht="27" customHeight="1" spans="1:20">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4644,7 +5620,7 @@
       <c r="S169" s="4"/>
       <c r="T169" s="4"/>
     </row>
-    <row r="170" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" ht="27" customHeight="1" spans="1:20">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4666,7 +5642,7 @@
       <c r="S170" s="4"/>
       <c r="T170" s="4"/>
     </row>
-    <row r="171" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" ht="27" customHeight="1" spans="1:20">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4688,7 +5664,7 @@
       <c r="S171" s="4"/>
       <c r="T171" s="4"/>
     </row>
-    <row r="172" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" ht="27" customHeight="1" spans="1:20">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4710,7 +5686,7 @@
       <c r="S172" s="4"/>
       <c r="T172" s="4"/>
     </row>
-    <row r="173" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" ht="27" customHeight="1" spans="1:20">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4732,7 +5708,7 @@
       <c r="S173" s="4"/>
       <c r="T173" s="4"/>
     </row>
-    <row r="174" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" ht="27" customHeight="1" spans="1:20">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4754,7 +5730,7 @@
       <c r="S174" s="4"/>
       <c r="T174" s="4"/>
     </row>
-    <row r="175" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" ht="27" customHeight="1" spans="1:20">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4776,7 +5752,7 @@
       <c r="S175" s="4"/>
       <c r="T175" s="4"/>
     </row>
-    <row r="176" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" ht="27" customHeight="1" spans="1:20">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4798,7 +5774,7 @@
       <c r="S176" s="4"/>
       <c r="T176" s="4"/>
     </row>
-    <row r="177" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" ht="27" customHeight="1" spans="1:20">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4820,7 +5796,7 @@
       <c r="S177" s="4"/>
       <c r="T177" s="4"/>
     </row>
-    <row r="178" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" ht="27" customHeight="1" spans="1:20">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4842,7 +5818,7 @@
       <c r="S178" s="4"/>
       <c r="T178" s="4"/>
     </row>
-    <row r="179" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" ht="27" customHeight="1" spans="1:20">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4864,7 +5840,7 @@
       <c r="S179" s="4"/>
       <c r="T179" s="4"/>
     </row>
-    <row r="180" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" ht="27" customHeight="1" spans="1:20">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4886,7 +5862,7 @@
       <c r="S180" s="4"/>
       <c r="T180" s="4"/>
     </row>
-    <row r="181" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" ht="27" customHeight="1" spans="1:20">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4908,7 +5884,7 @@
       <c r="S181" s="4"/>
       <c r="T181" s="4"/>
     </row>
-    <row r="182" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" ht="27" customHeight="1" spans="1:20">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4930,7 +5906,7 @@
       <c r="S182" s="4"/>
       <c r="T182" s="4"/>
     </row>
-    <row r="183" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" ht="27" customHeight="1" spans="1:20">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4952,7 +5928,7 @@
       <c r="S183" s="4"/>
       <c r="T183" s="4"/>
     </row>
-    <row r="184" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" ht="27" customHeight="1" spans="1:20">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4974,7 +5950,7 @@
       <c r="S184" s="4"/>
       <c r="T184" s="4"/>
     </row>
-    <row r="185" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" ht="27" customHeight="1" spans="1:20">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4996,7 +5972,7 @@
       <c r="S185" s="4"/>
       <c r="T185" s="4"/>
     </row>
-    <row r="186" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" ht="27" customHeight="1" spans="1:20">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -5018,7 +5994,7 @@
       <c r="S186" s="4"/>
       <c r="T186" s="4"/>
     </row>
-    <row r="187" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" ht="27" customHeight="1" spans="1:20">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -5040,7 +6016,7 @@
       <c r="S187" s="4"/>
       <c r="T187" s="4"/>
     </row>
-    <row r="188" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" ht="27" customHeight="1" spans="1:20">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -5062,7 +6038,7 @@
       <c r="S188" s="4"/>
       <c r="T188" s="4"/>
     </row>
-    <row r="189" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" ht="27" customHeight="1" spans="1:20">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -5084,7 +6060,7 @@
       <c r="S189" s="4"/>
       <c r="T189" s="4"/>
     </row>
-    <row r="190" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" ht="27" customHeight="1" spans="1:20">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -5106,7 +6082,7 @@
       <c r="S190" s="4"/>
       <c r="T190" s="4"/>
     </row>
-    <row r="191" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" ht="27" customHeight="1" spans="1:20">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -5128,7 +6104,7 @@
       <c r="S191" s="4"/>
       <c r="T191" s="4"/>
     </row>
-    <row r="192" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" ht="27" customHeight="1" spans="1:20">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -5150,7 +6126,7 @@
       <c r="S192" s="4"/>
       <c r="T192" s="4"/>
     </row>
-    <row r="193" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" ht="27" customHeight="1" spans="1:20">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -5172,7 +6148,7 @@
       <c r="S193" s="4"/>
       <c r="T193" s="4"/>
     </row>
-    <row r="194" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" ht="27" customHeight="1" spans="1:20">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -5194,7 +6170,7 @@
       <c r="S194" s="4"/>
       <c r="T194" s="4"/>
     </row>
-    <row r="195" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" ht="27" customHeight="1" spans="1:20">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -5216,7 +6192,7 @@
       <c r="S195" s="4"/>
       <c r="T195" s="4"/>
     </row>
-    <row r="196" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" ht="27" customHeight="1" spans="1:20">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -5238,7 +6214,7 @@
       <c r="S196" s="4"/>
       <c r="T196" s="4"/>
     </row>
-    <row r="197" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" ht="27" customHeight="1" spans="1:20">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -5260,7 +6236,7 @@
       <c r="S197" s="4"/>
       <c r="T197" s="4"/>
     </row>
-    <row r="198" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" ht="27" customHeight="1" spans="1:20">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -5282,7 +6258,7 @@
       <c r="S198" s="4"/>
       <c r="T198" s="4"/>
     </row>
-    <row r="199" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" ht="27" customHeight="1" spans="1:20">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -5304,7 +6280,7 @@
       <c r="S199" s="4"/>
       <c r="T199" s="4"/>
     </row>
-    <row r="200" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" ht="27" customHeight="1" spans="1:20">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -5327,56 +6303,56 @@
       <c r="T200" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C676A87B-FE4B-483F-BF4E-437512B31989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="89" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="14" style="2"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="89" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2" ht="92" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="83" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+    <row r="1" ht="46" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="92" customHeight="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="83" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>